--- a/work/2I码上购处理订单接口规范@20180119.xlsx
+++ b/work/2I码上购处理订单接口规范@20180119.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="上门激活 " sheetId="4" r:id="rId1"/>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2058,7 +2058,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2541,7 +2541,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3087,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3185,7 +3185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>179</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>180</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>64</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>61</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>181</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>92</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>71</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>73</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>84</v>
       </c>
@@ -3543,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/work/2I码上购处理订单接口规范@20180119.xlsx
+++ b/work/2I码上购处理订单接口规范@20180119.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="上门激活 " sheetId="4" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="线上购" sheetId="6" r:id="rId5"/>
     <sheet name="finish 文件" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="291">
   <si>
     <t>分隔符：@@@</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,6 +917,183 @@
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_id                 string                  省分                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_id                 string                  地市                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id                string                  正式订单号               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iccid                   string                  ICCID               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_oper_date         string                  订单时间                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">device_number           string                  订购号码                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cust_name               string                  客户姓名                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_id                 string                  证件号码                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailed_addr             string                  邮寄地址                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tel_phone               string                  联系电话                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex                     string                  性别                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age                     string                  年龄                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_status            string                  订单状态                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name            string                  套餐名称                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goods_name              string                  商品名称                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispatch_id             string                  派单工号                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispatch_date           string                  派单时间                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_dur                string                  派送时长                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_back_date         string                  退单时间                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_back_reason       string                  退单原因                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_date               string                  开户时间                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_status         string                  激活状态                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_date           string                  激活时间                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_channel_name       string                  派送人员归属渠道名称          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_channel_no         string                  派送人员归属渠道编码          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_name               string                  派送人员姓名              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_device_number      string                  派送人员手机号             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev_name                string                  发展人名称               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev_no                  string                  发展人编码               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deliver_type            string                  交付方式                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_lag                  string                  是否超时                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commend_no              string                  推荐人     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_id                 string                  订单归属省分              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_id                 string                  订单归属地市              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id                string                  订单号                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iccid                   string                  SIM卡卡号               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_oper_date         string                  订单创建时间              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">device_number           string                  预占号码                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cust_name               string                  入网姓名                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_id                 string                  入网证件号码              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailed_addr             string                  配送地址                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_device_number     string                  下单预约号码              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex                     string                  入网性别                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age                     string                  入网年龄                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_to_channel_date   string                  订单到厅时间              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">file_dur                string                  签收时间-到厅时间           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_status         string                  已激活 激活成功 激活失败       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel_name            string                  营业厅名称               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel_no              string                  营业厅渠道编码             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_id                 string                  营业厅区县               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_name               string                  开户人员姓名              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_device_number      string                  开户人员手机号             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_commend_no         string                  开户人员发展人编码           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_channel_no         string                  开户人员归属渠道编码          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_channel_name       string                  开户人员归属渠道名称          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_name           string                  激活人员姓名              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_device_number  string                  激活人员手机号             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_commend_no     string                  激活人员发展人编码           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commend_no              string                  下单或者激活页面的推荐人    </t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,59 +1797,61 @@
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>215</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>220</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
@@ -1683,7 +1862,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -1693,8 +1872,11 @@
       <c r="C10" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1704,8 +1886,11 @@
       <c r="C11" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -1715,8 +1900,11 @@
       <c r="C12" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1726,8 +1914,11 @@
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1928,11 @@
       <c r="C14" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1748,8 +1942,11 @@
       <c r="C15" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
@@ -1759,8 +1956,11 @@
       <c r="C16" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1770,8 +1970,11 @@
       <c r="C17" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>119</v>
       </c>
@@ -1781,8 +1984,11 @@
       <c r="C18" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
@@ -1792,8 +1998,11 @@
       <c r="C19" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +2012,11 @@
       <c r="C20" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>35</v>
       </c>
@@ -1814,8 +2026,11 @@
       <c r="C21" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
@@ -1825,8 +2040,11 @@
       <c r="C22" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
@@ -1836,8 +2054,11 @@
       <c r="C23" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -1847,8 +2068,11 @@
       <c r="C24" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>155</v>
       </c>
@@ -1858,8 +2082,11 @@
       <c r="C25" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>157</v>
       </c>
@@ -1869,8 +2096,11 @@
       <c r="C26" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>159</v>
       </c>
@@ -1880,8 +2110,11 @@
       <c r="C27" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>44</v>
       </c>
@@ -1891,8 +2124,11 @@
       <c r="C28" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>46</v>
       </c>
@@ -1902,8 +2138,11 @@
       <c r="C29" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>49</v>
       </c>
@@ -1913,8 +2152,11 @@
       <c r="C30" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>51</v>
       </c>
@@ -1924,8 +2166,11 @@
       <c r="C31" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>54</v>
       </c>
@@ -1934,6 +2179,9 @@
       </c>
       <c r="C32" s="6" t="s">
         <v>165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1946,6 +2194,9 @@
       <c r="C33" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="D33" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -1957,6 +2208,9 @@
       <c r="C34" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="D34" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
@@ -1968,6 +2222,9 @@
       <c r="C35" s="6" t="s">
         <v>171</v>
       </c>
+      <c r="D35" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
@@ -1979,6 +2236,9 @@
       <c r="C36" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="D36" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -1990,6 +2250,9 @@
       <c r="C37" s="6" t="s">
         <v>174</v>
       </c>
+      <c r="D37" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
@@ -2001,6 +2264,9 @@
       <c r="C38" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="D38" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
@@ -2012,6 +2278,9 @@
       <c r="C39" s="6" t="s">
         <v>212</v>
       </c>
+      <c r="D39" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
@@ -2023,6 +2292,9 @@
       <c r="C40" s="11" t="s">
         <v>177</v>
       </c>
+      <c r="D40" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
@@ -2033,6 +2305,9 @@
       </c>
       <c r="C41" s="6" t="s">
         <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2050,15 +2325,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2067,54 +2343,54 @@
     <col min="3" max="3" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>217</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>218</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
@@ -2125,7 +2401,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>129</v>
       </c>
@@ -2135,8 +2411,11 @@
       <c r="C10" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -2146,8 +2425,11 @@
       <c r="C11" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2157,8 +2439,11 @@
       <c r="C12" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -2168,8 +2453,11 @@
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -2179,8 +2467,11 @@
       <c r="C14" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -2190,8 +2481,11 @@
       <c r="C15" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
@@ -2201,8 +2495,11 @@
       <c r="C16" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -2212,8 +2509,11 @@
       <c r="C17" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>119</v>
       </c>
@@ -2223,8 +2523,11 @@
       <c r="C18" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>117</v>
       </c>
@@ -2234,8 +2537,11 @@
       <c r="C19" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
@@ -2245,8 +2551,11 @@
       <c r="C20" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>35</v>
       </c>
@@ -2256,8 +2565,11 @@
       <c r="C21" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
@@ -2267,8 +2579,11 @@
       <c r="C22" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
@@ -2278,8 +2593,11 @@
       <c r="C23" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -2289,8 +2607,11 @@
       <c r="C24" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>110</v>
       </c>
@@ -2300,8 +2621,11 @@
       <c r="C25" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>108</v>
       </c>
@@ -2311,8 +2635,11 @@
       <c r="C26" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>44</v>
       </c>
@@ -2322,8 +2649,11 @@
       <c r="C27" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
@@ -2333,8 +2663,11 @@
       <c r="C28" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>49</v>
       </c>
@@ -2344,8 +2677,11 @@
       <c r="C29" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>51</v>
       </c>
@@ -2355,8 +2691,11 @@
       <c r="C30" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>54</v>
       </c>
@@ -2366,8 +2705,11 @@
       <c r="C31" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>100</v>
       </c>
@@ -2377,8 +2719,11 @@
       <c r="C32" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>98</v>
       </c>
@@ -2388,8 +2733,11 @@
       <c r="C33" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>96</v>
       </c>
@@ -2399,8 +2747,11 @@
       <c r="C34" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>67</v>
       </c>
@@ -2410,8 +2761,11 @@
       <c r="C35" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>69</v>
       </c>
@@ -2421,8 +2775,11 @@
       <c r="C36" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>92</v>
       </c>
@@ -2432,8 +2789,11 @@
       <c r="C37" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>90</v>
       </c>
@@ -2443,8 +2803,11 @@
       <c r="C38" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
@@ -2454,8 +2817,11 @@
       <c r="C39" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2465,8 +2831,11 @@
       <c r="C40" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
@@ -2476,8 +2845,11 @@
       <c r="C41" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>84</v>
       </c>
@@ -2487,8 +2859,11 @@
       <c r="C42" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>76</v>
       </c>
@@ -2498,8 +2873,11 @@
       <c r="C43" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>81</v>
       </c>
@@ -2509,8 +2887,11 @@
       <c r="C44" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>78</v>
       </c>
@@ -2519,6 +2900,9 @@
       </c>
       <c r="C45" s="6" t="s">
         <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2925,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/work/2I码上购处理订单接口规范@20180119.xlsx
+++ b/work/2I码上购处理订单接口规范@20180119.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="上门激活 " sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="317">
   <si>
     <t>分隔符：@@@</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,7 +1093,87 @@
     <t xml:space="preserve">activate_commend_no     string                  激活人员发展人编码           </t>
   </si>
   <si>
-    <t xml:space="preserve">commend_no              string                  下单或者激活页面的推荐人    </t>
+    <t xml:space="preserve">order_id                string                  订单号                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iccid                   string                  SIM卡卡号                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_date              string                  订单创建时间              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">device_number           string                  预占号码                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cust_name               string                  入网姓名                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tel_phone               string                  联系电话                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex                     string                  入网性别                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age                     string                  入网年龄                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_status            string                  订单状态                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name            string                  套餐名称                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goods_name              string                  商品名称                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">audit_name              string                  退单时间                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">audit_no                string                  退单原因                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open_date               string                  预开户时间               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate                string                  已激活 激活成功 激活失败       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_time           string                  激活成功时间              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel_no              string                  渠道编码                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel_name            string                  渠道名称                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev_no                  string                  发展人编码                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev_name                string                  发展人名称                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_phone              string                  开户人员手机号             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_phone          string                  激活人员手机号             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_accept             string                  自提 上门  现场受理         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommender             string                  推荐人    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commend_no              string                  下单或者激活页面的推荐人  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deliver_type            string                  交付方式                </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预占号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1786,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2333,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2874,7 +2954,7 @@
         <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2902,7 +2982,7 @@
         <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2924,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3018,6 +3098,9 @@
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E10" t="s">
+        <v>264</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -3033,6 +3116,9 @@
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E11" t="s">
+        <v>265</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -3048,6 +3134,9 @@
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E12" t="s">
+        <v>290</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -3063,6 +3152,9 @@
       <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E13" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -3077,6 +3169,9 @@
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -3091,6 +3186,9 @@
       <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E15" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
@@ -3105,6 +3203,9 @@
       <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="E16" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
@@ -3119,6 +3220,9 @@
       <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="E17" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
@@ -3133,6 +3237,9 @@
       <c r="D18" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E18" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
@@ -3147,6 +3254,9 @@
       <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="E19" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
@@ -3161,6 +3271,9 @@
       <c r="D20" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="E20" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
@@ -3175,6 +3288,9 @@
       <c r="D21" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="E21" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
@@ -3189,6 +3305,9 @@
       <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="E22" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
@@ -3203,6 +3322,9 @@
       <c r="D23" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E23" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
@@ -3217,6 +3339,9 @@
       <c r="D24" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="E24" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
@@ -3231,6 +3356,9 @@
       <c r="D25" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="E25" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
@@ -3245,6 +3373,9 @@
       <c r="D26" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E26" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
@@ -3259,6 +3390,9 @@
       <c r="D27" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E27" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
@@ -3273,6 +3407,9 @@
       <c r="D28" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="E28" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
@@ -3287,6 +3424,9 @@
       <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="E29" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
@@ -3301,6 +3441,9 @@
       <c r="D30" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="E30" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
@@ -3315,6 +3458,9 @@
       <c r="D31" s="6" t="s">
         <v>223</v>
       </c>
+      <c r="E31" t="s">
+        <v>308</v>
+      </c>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -3330,6 +3476,9 @@
       <c r="D32" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="E32" t="s">
+        <v>309</v>
+      </c>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -3345,6 +3494,9 @@
       <c r="D33" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="E33" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
@@ -3359,6 +3511,9 @@
       <c r="D34" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="E34" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
@@ -3373,7 +3528,9 @@
       <c r="D35" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>287</v>
+      </c>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -3389,6 +3546,9 @@
       <c r="D36" s="6" t="s">
         <v>229</v>
       </c>
+      <c r="E36" t="s">
+        <v>311</v>
+      </c>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -3404,6 +3564,9 @@
       <c r="D37" s="6" t="s">
         <v>225</v>
       </c>
+      <c r="E37" t="s">
+        <v>312</v>
+      </c>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -3418,6 +3581,9 @@
       </c>
       <c r="D38" s="21" t="s">
         <v>230</v>
+      </c>
+      <c r="E38" t="s">
+        <v>313</v>
       </c>
       <c r="H38" s="9"/>
     </row>
@@ -3471,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3610,7 +3776,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3927,8 +4093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/work/2I码上购处理订单接口规范@20180119.xlsx
+++ b/work/2I码上购处理订单接口规范@20180119.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="上门激活 " sheetId="4" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="线上购" sheetId="6" r:id="rId5"/>
     <sheet name="finish 文件" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="318">
   <si>
     <t>分隔符：@@@</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,6 +1173,10 @@
   </si>
   <si>
     <t>预占号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">order_status            string                  订单状态                </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1866,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2413,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2660,7 +2664,7 @@
         <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -3004,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4093,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
